--- a/Hardware/S3-27-epaper-touch-pro/POS/S3-27-epaper-touch-top-pos.xlsx
+++ b/Hardware/S3-27-epaper-touch-pro/POS/S3-27-epaper-touch-top-pos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="265">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -31,16 +31,298 @@
     <t xml:space="preserve">Package</t>
   </si>
   <si>
-    <t xml:space="preserve">MidX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MidY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layer</t>
+    <t xml:space="preserve">Mid X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-85.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.512500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-83.050000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.550000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-85.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-85.650000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-90.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-69.962500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.275000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-95.775000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-86.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7uF 50V US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-71.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-90.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7uF 50V_US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-88.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7uF 50V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.587500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.286300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-97.815400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.163600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-101.854000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.020600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-113.893600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-107.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_Polarized 100uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP_EIA-3528-21_Kemet-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.462500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-122.301000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-78.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-86.287500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-60.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBR0530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_SOD-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.150000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-90.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.550000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-93.950000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.650000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-93.450000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.280000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-72.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-112.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MountingSwitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baerklein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-89.750000</t>
   </si>
   <si>
     <t xml:space="preserve">J1</t>
@@ -58,16 +340,34 @@
     <t xml:space="preserve">-78.200000</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top</t>
+    <t xml:space="preserve">J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PinHeader_1x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.425000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-117.725000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-102.350000</t>
   </si>
   <si>
     <t xml:space="preserve">J4</t>
   </si>
   <si>
-    <t xml:space="preserve">Conn_01x06_Female</t>
+    <t xml:space="preserve">TochConn</t>
   </si>
   <si>
     <t xml:space="preserve">FFC-SMD_6P-P0.50_FH34SRJ-6S-0.5SH</t>
@@ -79,7 +379,52 @@
     <t xml:space="preserve">-89.000000</t>
   </si>
   <si>
-    <t xml:space="preserve">180.000000</t>
+    <t xml:space="preserve">J6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x05_Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PinHeader_1x05_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-117.120000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x04_Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PinHeader_1x04_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.263400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-67.183000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.050000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x06_Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.350000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-106.300000</t>
   </si>
   <si>
     <t xml:space="preserve">JP1</t>
@@ -97,6 +442,291 @@
     <t xml:space="preserve">-93.740000</t>
   </si>
   <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10uH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND-SMD_L4.0-W4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.650000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-98.050000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si1308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-323_SC-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.650000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-86.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si2301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.544600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-106.781600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-85.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.825000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-115.925000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-89.530000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.432000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-118.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-62.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.189000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-111.531400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5k11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.488200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-116.560600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-81.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-92.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.870000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-89.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-84.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-116.325000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-118.618000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-111.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-96.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.175200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-118.745000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.328200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-104.851200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.087400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-103.809800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.239800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-109.448600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-76.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-76.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-106.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP32-S3-WROOM-1-N8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP32-S3-WROOM-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.476000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-112.950000</t>
+  </si>
+  <si>
     <t xml:space="preserve">U2</t>
   </si>
   <si>
@@ -112,6 +742,21 @@
     <t xml:space="preserve">-113.550000</t>
   </si>
   <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KoreanHropartsElecTYPE-C-31-M-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB-C_SMD-TYPE-C-31-M-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.275000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-121.600000</t>
+  </si>
+  <si>
     <t xml:space="preserve">U5</t>
   </si>
   <si>
@@ -142,9 +787,6 @@
     <t xml:space="preserve">-108.077000</t>
   </si>
   <si>
-    <t xml:space="preserve">90.000000</t>
-  </si>
-  <si>
     <t xml:space="preserve">U8</t>
   </si>
   <si>
@@ -160,7 +802,19 @@
     <t xml:space="preserve">-82.087500</t>
   </si>
   <si>
-    <t xml:space="preserve">-90.000000</t>
+    <t xml:space="preserve">U9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rv3028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.350000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-84.800000</t>
   </si>
 </sst>
 </file>
@@ -256,10 +910,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -323,19 +977,19 @@
         <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>13</v>
@@ -343,19 +997,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>12</v>
@@ -366,22 +1020,22 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>13</v>
@@ -389,22 +1043,22 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>13</v>
@@ -412,22 +1066,22 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>13</v>
@@ -435,24 +1089,1427 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="G10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="C11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E11" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="B12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Hardware/S3-27-epaper-touch-pro/POS/S3-27-epaper-touch-top-pos.xlsx
+++ b/Hardware/S3-27-epaper-touch-pro/POS/S3-27-epaper-touch-top-pos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="263">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Mid Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Rot</t>
+    <t xml:space="preserve">Rotation</t>
   </si>
   <si>
     <t xml:space="preserve">Side</t>
@@ -49,205 +49,205 @@
     <t xml:space="preserve">1uF</t>
   </si>
   <si>
+    <t xml:space="preserve">C_0805_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-85.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.512500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-83.050000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.550000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-85.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-85.650000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-90.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-69.962500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.275000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-95.775000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-86.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7uF 50V US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-71.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-90.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7uF 50V_US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-88.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.587500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.286300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-97.815400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.163600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-101.854000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.020600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-113.893600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-107.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_Polarized 100uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP_EIA-3528-21_Kemet-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.462500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-122.301000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-78.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19</t>
+  </si>
+  <si>
     <t xml:space="preserve">C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
   <si>
-    <t xml:space="preserve">142.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-85.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.512500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-83.050000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.550000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-85.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-85.650000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-90.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-69.962500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.275000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-95.775000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-86.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7uF 50V US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-71.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-90.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7uF 50V_US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-88.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7uF 50V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.587500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.286300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-97.815400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.163600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-101.854000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.020600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-113.893600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.250000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-107.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_Polarized 100uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP_EIA-3528-21_Kemet-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.462500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-122.301000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-78.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.250000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-86.287500</t>
+    <t xml:space="preserve">114.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-88.000000</t>
   </si>
   <si>
     <t xml:space="preserve">C20</t>
@@ -319,10 +319,10 @@
     <t xml:space="preserve">baerklein</t>
   </si>
   <si>
-    <t xml:space="preserve">144.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-89.750000</t>
+    <t xml:space="preserve">141.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-90.200000</t>
   </si>
   <si>
     <t xml:space="preserve">J1</t>
@@ -466,10 +466,10 @@
     <t xml:space="preserve">SOT-323_SC-70</t>
   </si>
   <si>
-    <t xml:space="preserve">138.650000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-86.500000</t>
+    <t xml:space="preserve">138.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-84.650000</t>
   </si>
   <si>
     <t xml:space="preserve">Q2</t>
@@ -493,13 +493,10 @@
     <t xml:space="preserve">10K</t>
   </si>
   <si>
-    <t xml:space="preserve">R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-85.850000</t>
+    <t xml:space="preserve">R_0805_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.600000</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
@@ -517,10 +514,10 @@
     <t xml:space="preserve">3R</t>
   </si>
   <si>
-    <t xml:space="preserve">135.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-89.530000</t>
+    <t xml:space="preserve">132.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-88.100000</t>
   </si>
   <si>
     <t xml:space="preserve">R4</t>
@@ -544,7 +541,7 @@
     <t xml:space="preserve">R6</t>
   </si>
   <si>
-    <t xml:space="preserve">115.189000</t>
+    <t xml:space="preserve">114.800000</t>
   </si>
   <si>
     <t xml:space="preserve">-111.531400</t>
@@ -568,9 +565,6 @@
     <t xml:space="preserve">124.250000</t>
   </si>
   <si>
-    <t xml:space="preserve">-87.250000</t>
-  </si>
-  <si>
     <t xml:space="preserve">R9</t>
   </si>
   <si>
@@ -676,10 +670,13 @@
     <t xml:space="preserve">R20</t>
   </si>
   <si>
-    <t xml:space="preserve">115.239800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-109.448600</t>
+    <t xml:space="preserve">100R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-76.150000</t>
   </si>
   <si>
     <t xml:space="preserve">R21</t>
@@ -688,7 +685,7 @@
     <t xml:space="preserve">0R</t>
   </si>
   <si>
-    <t xml:space="preserve">114.500000</t>
+    <t xml:space="preserve">114.000000</t>
   </si>
   <si>
     <t xml:space="preserve">-76.250000</t>
@@ -697,10 +694,7 @@
     <t xml:space="preserve">R22</t>
   </si>
   <si>
-    <t xml:space="preserve">116.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-76.500000</t>
+    <t xml:space="preserve">116.200000</t>
   </si>
   <si>
     <t xml:space="preserve">R24</t>
@@ -888,8 +882,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -913,7 +911,7 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -979,7 +977,7 @@
       <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -1002,7 +1000,7 @@
       <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
@@ -1025,7 +1023,7 @@
       <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -1048,7 +1046,7 @@
       <c r="B6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
@@ -1071,7 +1069,7 @@
       <c r="B7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
@@ -1094,7 +1092,7 @@
       <c r="B8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
@@ -1117,7 +1115,7 @@
       <c r="B9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
@@ -1140,7 +1138,7 @@
       <c r="B10" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
@@ -1163,7 +1161,7 @@
       <c r="B11" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
@@ -1184,13 +1182,13 @@
         <v>46</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>45</v>
@@ -1204,19 +1202,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>24</v>
@@ -1227,19 +1225,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="E14" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>17</v>
@@ -1250,19 +1248,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>17</v>
@@ -1273,19 +1271,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>12</v>
@@ -1296,19 +1294,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="E17" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>66</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>17</v>
@@ -1319,19 +1317,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="0" t="s">
+      <c r="E18" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>24</v>
@@ -1342,19 +1340,19 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>17</v>
@@ -1365,13 +1363,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>74</v>
@@ -1380,7 +1378,7 @@
         <v>75</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>13</v>
@@ -1391,10 +1389,10 @@
         <v>76</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>77</v>
@@ -1837,7 +1835,7 @@
         <v>158</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>24</v>
@@ -1848,19 +1846,19 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D41" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>162</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>24</v>
@@ -1871,22 +1869,22 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="C42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="0" t="s">
+      <c r="E42" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>166</v>
-      </c>
       <c r="F42" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>13</v>
@@ -1894,19 +1892,19 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D43" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>169</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>12</v>
@@ -1917,19 +1915,19 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D44" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>172</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>24</v>
@@ -1940,19 +1938,19 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D45" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>17</v>
@@ -1963,19 +1961,19 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="C46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="0" t="s">
+      <c r="E46" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>179</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>17</v>
@@ -1986,19 +1984,19 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>17</v>
@@ -2009,19 +2007,19 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>17</v>
@@ -2032,19 +2030,19 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>17</v>
@@ -2055,19 +2053,19 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="E50" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>192</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>17</v>
@@ -2078,19 +2076,19 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>17</v>
@@ -2101,19 +2099,19 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>197</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>17</v>
@@ -2124,19 +2122,19 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>41</v>
@@ -2147,19 +2145,19 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>17</v>
@@ -2170,19 +2168,19 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="E55" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>207</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>41</v>
@@ -2193,19 +2191,19 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>41</v>
@@ -2216,19 +2214,19 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>17</v>
@@ -2239,19 +2237,19 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>17</v>
@@ -2262,22 +2260,22 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D59" s="0" t="s">
+      <c r="E59" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>219</v>
-      </c>
       <c r="F59" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>13</v>
@@ -2285,19 +2283,19 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="C60" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="0" t="s">
+      <c r="E60" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>223</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>41</v>
@@ -2308,19 +2306,19 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>225</v>
-      </c>
       <c r="E61" s="0" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>12</v>
@@ -2331,19 +2329,19 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="E62" s="0" t="s">
         <v>227</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>229</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>12</v>
@@ -2354,19 +2352,19 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="D63" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="E63" s="0" t="s">
         <v>232</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>234</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>24</v>
@@ -2377,19 +2375,19 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="D64" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="E64" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>239</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>17</v>
@@ -2400,19 +2398,19 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="D65" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="E65" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>244</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>17</v>
@@ -2423,19 +2421,19 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="D66" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="E66" s="0" t="s">
         <v>247</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>249</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>17</v>
@@ -2446,19 +2444,19 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="D67" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="E67" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>254</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>12</v>
@@ -2469,19 +2467,19 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="D68" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="E68" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>259</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>41</v>
@@ -2492,19 +2490,19 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="D69" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="E69" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>264</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>17</v>

--- a/Hardware/S3-27-epaper-touch-pro/POS/S3-27-epaper-touch-top-pos.xlsx
+++ b/Hardware/S3-27-epaper-touch-pro/POS/S3-27-epaper-touch-top-pos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="270">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Val</t>
   </si>
   <si>
-    <t xml:space="preserve">Package</t>
+    <t xml:space="preserve">Footprint</t>
   </si>
   <si>
     <t xml:space="preserve">Mid X</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Rotation</t>
   </si>
   <si>
-    <t xml:space="preserve">Side</t>
+    <t xml:space="preserve">Layer</t>
   </si>
   <si>
     <t xml:space="preserve">C1</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">1uF</t>
   </si>
   <si>
-    <t xml:space="preserve">C_0805_2012</t>
+    <t xml:space="preserve">C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
   <si>
     <t xml:space="preserve">142.600000</t>
@@ -109,10 +109,13 @@
     <t xml:space="preserve">C6</t>
   </si>
   <si>
-    <t xml:space="preserve">156.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-69.962500</t>
+    <t xml:space="preserve">156.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-70.937500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-90.000000</t>
   </si>
   <si>
     <t xml:space="preserve">C7</t>
@@ -136,7 +139,7 @@
     <t xml:space="preserve">C9</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7uF 50V US</t>
+    <t xml:space="preserve">4.7uF 50V_US</t>
   </si>
   <si>
     <t xml:space="preserve">158.400000</t>
@@ -145,15 +148,9 @@
     <t xml:space="preserve">-71.000000</t>
   </si>
   <si>
-    <t xml:space="preserve">-90.000000</t>
-  </si>
-  <si>
     <t xml:space="preserve">C10</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7uF 50V_US</t>
-  </si>
-  <si>
     <t xml:space="preserve">152.700000</t>
   </si>
   <si>
@@ -220,463 +217,478 @@
     <t xml:space="preserve">-122.301000</t>
   </si>
   <si>
-    <t xml:space="preserve">C17</t>
+    <t xml:space="preserve">C18</t>
   </si>
   <si>
     <t xml:space="preserve">220uF</t>
   </si>
   <si>
+    <t xml:space="preserve">134.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-80.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-88.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-72.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBR0530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_SOD-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.150000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-90.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.550000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-93.950000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.650000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-93.450000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-76.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-112.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MountingSwitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baerklein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-90.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC24-S24FIC-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FPC-SMD_P0.50-24P_QCHF-SM-H2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.350000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-78.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PinHeader_1x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.425000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-117.725000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-102.350000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TochConn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFC-SMD_6P-P0.50_FH34SRJ-6S-0.5SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-89.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PinHeader_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144.748281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-93.531641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x05_Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PinHeader_1x05_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-117.120000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x04_Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PinHeader_1x04_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-76.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.050000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x06_Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.350000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-106.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW-SMD_G-SWITCH_MK-12C02-G015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.270000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-93.740000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10uH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND-SMD_L4.0-W4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.650000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-98.050000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si1308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-323_SC-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-84.650000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si2301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.544600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-106.781600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.825000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-115.925000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-88.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.432000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-118.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-72.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-111.531400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5k11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.470000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-116.560600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-91.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-81.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-92.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.870000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-89.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-84.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-116.325000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-118.618000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-111.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-96.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.175200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-118.745000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.328200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-104.851200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.087400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-103.809800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100R</t>
+  </si>
+  <si>
     <t xml:space="preserve">129.600000</t>
   </si>
   <si>
-    <t xml:space="preserve">-78.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-88.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-60.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBR0530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_SOD-123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.150000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-90.850000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.550000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-93.950000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.650000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-93.450000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.280000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-72.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-112.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MountingSwitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baerklein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-90.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFC24-S24FIC-00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FPC-SMD_P0.50-24P_QCHF-SM-H2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.350000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-78.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_01x06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PinHeader_1x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.425000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-117.725000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-102.350000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TochConn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FFC-SMD_6P-P0.50_FH34SRJ-6S-0.5SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-89.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_01x05_Pin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PinHeader_1x05_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.250000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-117.120000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_01x04_Pin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PinHeader_1x04_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.263400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-67.183000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.050000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conn_01x06_Pin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.350000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-106.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW-SMD_G-SWITCH_MK-12C02-G015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.270000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-93.740000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10uH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND-SMD_L4.0-W4.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.650000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-98.050000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si1308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-323_SC-70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-84.650000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si2301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.544600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-106.781600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_0805_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.825000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-115.925000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-88.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.432000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-118.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-62.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-111.531400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5k11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.488200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-116.560600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.250000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-81.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-92.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.870000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-89.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-84.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-116.325000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-118.618000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-111.250000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-96.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.175200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-118.745000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.328200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-104.851200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.087400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-103.809800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-76.150000</t>
+    <t xml:space="preserve">-79.800000</t>
   </si>
   <si>
     <t xml:space="preserve">R21</t>
@@ -706,6 +718,15 @@
     <t xml:space="preserve">-106.800000</t>
   </si>
   <si>
+    <t xml:space="preserve">R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-80.700000</t>
+  </si>
+  <si>
     <t xml:space="preserve">U1</t>
   </si>
   <si>
@@ -760,10 +781,10 @@
     <t xml:space="preserve">LGA-8_L3.0-W3.0-P0.80-TR</t>
   </si>
   <si>
-    <t xml:space="preserve">131.368800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-61.010800</t>
+    <t xml:space="preserve">126.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-72.600000</t>
   </si>
   <si>
     <t xml:space="preserve">U6</t>
@@ -882,12 +903,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -908,15 +925,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41:C62"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.93"/>
@@ -977,7 +994,7 @@
       <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -1000,7 +1017,7 @@
       <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
@@ -1023,7 +1040,7 @@
       <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -1046,7 +1063,7 @@
       <c r="B6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
@@ -1069,7 +1086,7 @@
       <c r="B7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
@@ -1079,7 +1096,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>13</v>
@@ -1087,19 +1104,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>24</v>
@@ -1110,19 +1127,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>12</v>
@@ -1133,22 +1150,22 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>13</v>
@@ -1159,16 +1176,16 @@
         <v>42</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>24</v>
@@ -1179,19 +1196,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="E12" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>17</v>
@@ -1202,19 +1219,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="E13" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>24</v>
@@ -1225,19 +1242,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="E14" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>17</v>
@@ -1248,19 +1265,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>17</v>
@@ -1271,19 +1288,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>12</v>
@@ -1294,19 +1311,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="E17" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>17</v>
@@ -1317,22 +1334,22 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="0" t="s">
+      <c r="E18" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="F18" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>13</v>
@@ -1340,22 +1357,22 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="0" t="s">
+      <c r="E19" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="F19" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>13</v>
@@ -1366,19 +1383,19 @@
         <v>72</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="E20" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="F20" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>13</v>
@@ -1386,22 +1403,22 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="C21" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>13</v>
@@ -1409,19 +1426,19 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>83</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>24</v>
@@ -1432,22 +1449,22 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="0" t="s">
+      <c r="E23" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="F23" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>13</v>
@@ -1455,22 +1472,22 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="0" t="s">
+      <c r="E24" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="F24" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>13</v>
@@ -1478,22 +1495,22 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="0" t="s">
+      <c r="E25" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="F25" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>13</v>
@@ -1501,19 +1518,19 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="C26" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>17</v>
@@ -1524,19 +1541,19 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>17</v>
@@ -1547,22 +1564,22 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>13</v>
@@ -1570,22 +1587,22 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="E29" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>110</v>
-      </c>
       <c r="F29" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>13</v>
@@ -1593,22 +1610,22 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="C30" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>13</v>
@@ -1616,22 +1633,22 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>13</v>
@@ -1639,19 +1656,19 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>24</v>
@@ -1662,19 +1679,19 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>12</v>
@@ -1685,19 +1702,19 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>17</v>
@@ -1708,19 +1725,19 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>24</v>
@@ -1731,19 +1748,19 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>17</v>
@@ -1754,22 +1771,22 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>13</v>
@@ -1777,19 +1794,19 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>17</v>
@@ -1800,19 +1817,19 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>17</v>
@@ -1823,16 +1840,16 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>11</v>
@@ -1846,19 +1863,19 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="D41" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>24</v>
@@ -1869,19 +1886,19 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>12</v>
@@ -1892,19 +1909,19 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>12</v>
@@ -1915,22 +1932,22 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>13</v>
@@ -1938,19 +1955,19 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>17</v>
@@ -1961,19 +1978,19 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>157</v>
+        <v>178</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>17</v>
@@ -1984,19 +2001,19 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>17</v>
@@ -2007,19 +2024,19 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>17</v>
@@ -2030,19 +2047,19 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>17</v>
@@ -2053,19 +2070,19 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>157</v>
+        <v>191</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>17</v>
@@ -2076,19 +2093,19 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>17</v>
@@ -2099,19 +2116,19 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>157</v>
+        <v>178</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>17</v>
@@ -2122,22 +2139,22 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>13</v>
@@ -2145,19 +2162,19 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>17</v>
@@ -2168,22 +2185,22 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>157</v>
+        <v>207</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>13</v>
@@ -2191,22 +2208,22 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>13</v>
@@ -2214,19 +2231,19 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>17</v>
@@ -2237,19 +2254,19 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>17</v>
@@ -2260,22 +2277,22 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>157</v>
+        <v>220</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>13</v>
@@ -2283,22 +2300,22 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>157</v>
+        <v>224</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>13</v>
@@ -2306,19 +2323,19 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>157</v>
+        <v>224</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>12</v>
@@ -2329,19 +2346,19 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>157</v>
+        <v>207</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>12</v>
@@ -2352,22 +2369,22 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>13</v>
@@ -2375,22 +2392,22 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>13</v>
@@ -2398,19 +2415,19 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>17</v>
@@ -2421,19 +2438,19 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>17</v>
@@ -2444,22 +2461,22 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>13</v>
@@ -2467,22 +2484,22 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>13</v>
@@ -2490,24 +2507,47 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G69" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Hardware/S3-27-epaper-touch-pro/POS/S3-27-epaper-touch-top-pos.xlsx
+++ b/Hardware/S3-27-epaper-touch-pro/POS/S3-27-epaper-touch-top-pos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="270">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Val</t>
   </si>
   <si>
-    <t xml:space="preserve">Footprint</t>
+    <t xml:space="preserve">Package</t>
   </si>
   <si>
     <t xml:space="preserve">Mid X</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
   <si>
-    <t xml:space="preserve">142.600000</t>
+    <t xml:space="preserve">142.100000</t>
   </si>
   <si>
     <t xml:space="preserve">-85.200000</t>
@@ -166,10 +166,10 @@
     <t xml:space="preserve">C12</t>
   </si>
   <si>
-    <t xml:space="preserve">151.286300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-97.815400</t>
+    <t xml:space="preserve">152.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-97.900000</t>
   </si>
   <si>
     <t xml:space="preserve">C13</t>
@@ -214,7 +214,7 @@
     <t xml:space="preserve">159.462500</t>
   </si>
   <si>
-    <t xml:space="preserve">-122.301000</t>
+    <t xml:space="preserve">-122.400000</t>
   </si>
   <si>
     <t xml:space="preserve">C18</t>
@@ -307,10 +307,10 @@
     <t xml:space="preserve">baerklein</t>
   </si>
   <si>
-    <t xml:space="preserve">141.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-90.200000</t>
+    <t xml:space="preserve">129.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-100.500000</t>
   </si>
   <si>
     <t xml:space="preserve">J1</t>
@@ -421,6 +421,15 @@
     <t xml:space="preserve">154.050000</t>
   </si>
   <si>
+    <t xml:space="preserve">J9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.856884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-89.319354</t>
+  </si>
+  <si>
     <t xml:space="preserve">J10</t>
   </si>
   <si>
@@ -529,10 +538,10 @@
     <t xml:space="preserve">R4</t>
   </si>
   <si>
-    <t xml:space="preserve">154.432000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-118.700000</t>
+    <t xml:space="preserve">156.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-118.800000</t>
   </si>
   <si>
     <t xml:space="preserve">R5</t>
@@ -547,7 +556,7 @@
     <t xml:space="preserve">R6</t>
   </si>
   <si>
-    <t xml:space="preserve">114.800000</t>
+    <t xml:space="preserve">220K</t>
   </si>
   <si>
     <t xml:space="preserve">-111.531400</t>
@@ -625,10 +634,7 @@
     <t xml:space="preserve">R14</t>
   </si>
   <si>
-    <t xml:space="preserve">160.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-118.618000</t>
+    <t xml:space="preserve">160.700000</t>
   </si>
   <si>
     <t xml:space="preserve">R15</t>
@@ -655,10 +661,7 @@
     <t xml:space="preserve">R17</t>
   </si>
   <si>
-    <t xml:space="preserve">157.175200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-118.745000</t>
+    <t xml:space="preserve">158.700000</t>
   </si>
   <si>
     <t xml:space="preserve">R18</t>
@@ -682,9 +685,6 @@
     <t xml:space="preserve">R20</t>
   </si>
   <si>
-    <t xml:space="preserve">100R</t>
-  </si>
-  <si>
     <t xml:space="preserve">129.600000</t>
   </si>
   <si>
@@ -820,7 +820,7 @@
     <t xml:space="preserve">U9</t>
   </si>
   <si>
-    <t xml:space="preserve">~</t>
+    <t xml:space="preserve">RV3032</t>
   </si>
   <si>
     <t xml:space="preserve">rv3028</t>
@@ -925,9 +925,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1728,19 +1728,19 @@
         <v>133</v>
       </c>
       <c r="B35" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="0" t="s">
+      <c r="E35" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="F35" s="0" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>13</v>
@@ -1748,22 +1748,22 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="C36" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="E36" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>141</v>
-      </c>
       <c r="F36" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>13</v>
@@ -1771,22 +1771,22 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="D37" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="E37" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>146</v>
-      </c>
       <c r="F37" s="0" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>13</v>
@@ -1794,22 +1794,22 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="D38" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="E38" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="F38" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>13</v>
@@ -1817,19 +1817,19 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="D39" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="E39" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>156</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>17</v>
@@ -1840,22 +1840,22 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="D40" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="E40" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F40" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>13</v>
@@ -1863,19 +1863,19 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="C41" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>24</v>
@@ -1889,19 +1889,19 @@
         <v>164</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" s="0" t="s">
+      <c r="E42" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>167</v>
-      </c>
       <c r="F42" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>13</v>
@@ -1909,13 +1909,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="C43" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>169</v>
@@ -1935,10 +1935,10 @@
         <v>171</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>172</v>
@@ -1958,10 +1958,10 @@
         <v>174</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>175</v>
@@ -1970,7 +1970,7 @@
         <v>176</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>13</v>
@@ -1984,16 +1984,16 @@
         <v>178</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D46" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>180</v>
-      </c>
       <c r="F46" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>13</v>
@@ -2001,13 +2001,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="C47" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>182</v>
@@ -2027,10 +2027,10 @@
         <v>184</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>185</v>
@@ -2050,10 +2050,10 @@
         <v>187</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>188</v>
@@ -2073,16 +2073,16 @@
         <v>190</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D50" s="0" t="s">
+      <c r="E50" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>17</v>
@@ -2093,13 +2093,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="C51" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>195</v>
@@ -2119,10 +2119,10 @@
         <v>197</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>198</v>
@@ -2142,10 +2142,10 @@
         <v>200</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>201</v>
@@ -2154,7 +2154,7 @@
         <v>202</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>13</v>
@@ -2165,19 +2165,19 @@
         <v>203</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>204</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>13</v>
@@ -2185,22 +2185,22 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="E55" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>209</v>
-      </c>
       <c r="F55" s="0" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>13</v>
@@ -2208,19 +2208,19 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="0" t="s">
+      <c r="E56" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>212</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>31</v>
@@ -2231,22 +2231,22 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>214</v>
-      </c>
       <c r="E57" s="0" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>13</v>
@@ -2254,19 +2254,19 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>218</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>17</v>
@@ -2277,19 +2277,19 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>222</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>17</v>
@@ -2300,22 +2300,22 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>13</v>
@@ -2323,22 +2323,22 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>224</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>226</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>13</v>
@@ -2346,19 +2346,19 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>12</v>
@@ -2369,19 +2369,19 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>12</v>
@@ -2392,22 +2392,22 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>13</v>
@@ -2415,22 +2415,22 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>13</v>
@@ -2438,19 +2438,19 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>17</v>
@@ -2461,19 +2461,19 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>17</v>
@@ -2484,22 +2484,22 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>13</v>
@@ -2507,22 +2507,22 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>13</v>
@@ -2530,24 +2530,47 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B71" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C71" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D71" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E71" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="F70" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" s="0" t="s">
+      <c r="F71" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="0" t="s">
         <v>13</v>
       </c>
     </row>
